--- a/public/assets/uploads/Uploads/primary_sales/primarysales_data.xlsx
+++ b/public/assets/uploads/Uploads/primary_sales/primarysales_data.xlsx
@@ -431,7 +431,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/public/assets/uploads/Uploads/primary_sales/primarysales_data.xlsx
+++ b/public/assets/uploads/Uploads/primary_sales/primarysales_data.xlsx
@@ -94,6 +94,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd\-mmm\-yyyy"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -128,12 +131,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,7 +435,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -491,7 +495,7 @@
       <c r="C2">
         <v>123456452</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="5">
         <v>42530</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -526,7 +530,7 @@
       <c r="C3">
         <v>7876678</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="5">
         <v>42531</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -559,13 +563,13 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>77876678</v>
-      </c>
-      <c r="D4" s="3">
+        <v>123456452</v>
+      </c>
+      <c r="D4" s="5">
         <v>42532</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
@@ -596,7 +600,7 @@
       <c r="C5">
         <v>77876678</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="5">
         <v>42532</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -631,7 +635,7 @@
       <c r="C6">
         <v>77876678</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="5">
         <v>42532</v>
       </c>
       <c r="E6" s="3" t="s">

--- a/public/assets/uploads/Uploads/primary_sales/primarysales_data.xlsx
+++ b/public/assets/uploads/Uploads/primary_sales/primarysales_data.xlsx
@@ -435,7 +435,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/public/assets/uploads/Uploads/primary_sales/primarysales_data.xlsx
+++ b/public/assets/uploads/Uploads/primary_sales/primarysales_data.xlsx
@@ -8,8 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -664,28 +662,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/public/assets/uploads/Uploads/primary_sales/primarysales_data.xlsx
+++ b/public/assets/uploads/Uploads/primary_sales/primarysales_data.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="primarysales_data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -433,7 +433,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/public/assets/uploads/Uploads/primary_sales/primarysales_data.xlsx
+++ b/public/assets/uploads/Uploads/primary_sales/primarysales_data.xlsx
@@ -7,9 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="primarysales_data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -435,7 +433,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -664,28 +662,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/public/assets/uploads/Uploads/primary_sales/primarysales_data.xlsx
+++ b/public/assets/uploads/Uploads/primary_sales/primarysales_data.xlsx
@@ -106,7 +106,9 @@
     <font>
       <sz val="11"/>
       <color rgb="FF4D4E4E"/>
-      <name val="Exo2-Medium"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -129,13 +131,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,19 +436,21 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="8" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -455,206 +460,206 @@
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>123456452</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>42530</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="6">
         <v>58515719</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="2">
         <v>546</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="2">
         <v>500</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="2">
         <v>1000</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>7876678</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>42531</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="6">
         <v>58515696</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="2">
         <v>23</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="2">
         <v>23</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="2">
         <v>1500</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>123456452</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>42532</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="6">
         <v>58551281</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="2">
         <v>54</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="2">
         <v>54</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="2">
         <v>2000</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>77876678</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>42532</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="6">
         <v>58515719</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="2">
         <v>54</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="2">
         <v>54</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="2">
         <v>2000</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>77876678</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>42532</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="6">
         <v>58515696</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="2">
         <v>23</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="2">
         <v>23</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="2">
         <v>1500</v>
       </c>
     </row>

--- a/public/assets/uploads/Uploads/primary_sales/primarysales_data.xlsx
+++ b/public/assets/uploads/Uploads/primary_sales/primarysales_data.xlsx
@@ -436,7 +436,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/public/assets/uploads/Uploads/primary_sales/primarysales_data.xlsx
+++ b/public/assets/uploads/Uploads/primary_sales/primarysales_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>0000014</t>
   </si>
@@ -436,7 +436,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -513,9 +513,6 @@
       <c r="H2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="2">
-        <v>546</v>
-      </c>
       <c r="J2" s="2">
         <v>500</v>
       </c>
@@ -565,9 +562,6 @@
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2">
-        <v>123456452</v>
-      </c>
       <c r="D4" s="4">
         <v>42532</v>
       </c>
@@ -643,9 +637,6 @@
       </c>
       <c r="E6" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="G6" s="6">
         <v>58515696</v>

--- a/public/assets/uploads/Uploads/primary_sales/primarysales_data.xlsx
+++ b/public/assets/uploads/Uploads/primary_sales/primarysales_data.xlsx
@@ -14,13 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
-  <si>
-    <t>0000014</t>
-  </si>
-  <si>
-    <t>abc6</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Distributor Code</t>
   </si>
@@ -28,12 +22,6 @@
     <t>Distributor Name</t>
   </si>
   <si>
-    <t>0000024</t>
-  </si>
-  <si>
-    <t>abc7</t>
-  </si>
-  <si>
     <t>Invoice No</t>
   </si>
   <si>
@@ -59,53 +47,16 @@
   </si>
   <si>
     <t>Amount</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>fg45k11</t>
-  </si>
-  <si>
-    <t>k0y6609</t>
-  </si>
-  <si>
-    <t>5nm5u99</t>
-  </si>
-  <si>
-    <t>345cf43523</t>
-  </si>
-  <si>
-    <t>rert3453432</t>
-  </si>
-  <si>
-    <t>qw1239967</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd\-mmm\-yyyy"/>
-  </numFmts>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF4D4E4E"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -131,14 +82,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -455,203 +402,37 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2">
-        <v>123456452</v>
-      </c>
-      <c r="D2" s="4">
-        <v>42530</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="6">
-        <v>58515719</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="2">
-        <v>500</v>
-      </c>
-      <c r="K2" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <v>7876678</v>
-      </c>
-      <c r="D3" s="4">
-        <v>42531</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="6">
-        <v>58515696</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="2">
-        <v>23</v>
-      </c>
-      <c r="J3" s="2">
-        <v>23</v>
-      </c>
-      <c r="K3" s="2">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4">
-        <v>42532</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="6">
-        <v>58551281</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="2">
-        <v>54</v>
-      </c>
-      <c r="J4" s="2">
-        <v>54</v>
-      </c>
-      <c r="K4" s="2">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2">
-        <v>77876678</v>
-      </c>
-      <c r="D5" s="4">
-        <v>42532</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="6">
-        <v>58515719</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="2">
-        <v>54</v>
-      </c>
-      <c r="J5" s="2">
-        <v>54</v>
-      </c>
-      <c r="K5" s="2">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2">
-        <v>77876678</v>
-      </c>
-      <c r="D6" s="4">
-        <v>42532</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="6">
-        <v>58515696</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="2">
-        <v>23</v>
-      </c>
-      <c r="J6" s="2">
-        <v>23</v>
-      </c>
-      <c r="K6" s="2">
-        <v>1500</v>
       </c>
     </row>
   </sheetData>
